--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Liph-Lpar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Liph-Lpar1.xlsx
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H2">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I2">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J2">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9535446666666667</v>
+        <v>1.771611</v>
       </c>
       <c r="N2">
-        <v>2.860634</v>
+        <v>5.314833</v>
       </c>
       <c r="O2">
-        <v>0.01948298947371231</v>
+        <v>0.03672985187529028</v>
       </c>
       <c r="P2">
-        <v>0.01948298947371232</v>
+        <v>0.03672985187529029</v>
       </c>
       <c r="Q2">
-        <v>0.025691353954</v>
+        <v>0.020192231641</v>
       </c>
       <c r="R2">
-        <v>0.231222185586</v>
+        <v>0.181730084769</v>
       </c>
       <c r="S2">
-        <v>0.004500404536355794</v>
+        <v>0.00544039292162722</v>
       </c>
       <c r="T2">
-        <v>0.004500404536355795</v>
+        <v>0.005440392921627222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H3">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I3">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J3">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>121.955173</v>
       </c>
       <c r="O3">
-        <v>0.8306030592602074</v>
+        <v>0.8428101954878733</v>
       </c>
       <c r="P3">
-        <v>0.8306030592602075</v>
+        <v>0.8428101954878736</v>
       </c>
       <c r="Q3">
-        <v>1.095279408713</v>
+        <v>0.4633348033765556</v>
       </c>
       <c r="R3">
-        <v>9.857514678416999</v>
+        <v>4.170013230389</v>
       </c>
       <c r="S3">
-        <v>0.1918622283735898</v>
+        <v>0.1248362949400335</v>
       </c>
       <c r="T3">
-        <v>0.1918622283735898</v>
+        <v>0.1248362949400335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H4">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I4">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J4">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5077083333333333</v>
+        <v>0.2535886666666667</v>
       </c>
       <c r="N4">
-        <v>1.523125</v>
+        <v>0.7607660000000001</v>
       </c>
       <c r="O4">
-        <v>0.01037358443692834</v>
+        <v>0.005257516556354092</v>
       </c>
       <c r="P4">
-        <v>0.01037358443692834</v>
+        <v>0.005257516556354093</v>
       </c>
       <c r="Q4">
-        <v>0.013679185625</v>
+        <v>0.002890319093111111</v>
       </c>
       <c r="R4">
-        <v>0.123112670625</v>
+        <v>0.026012871838</v>
       </c>
       <c r="S4">
-        <v>0.002396209602289884</v>
+        <v>0.0007787386661847425</v>
       </c>
       <c r="T4">
-        <v>0.002396209602289884</v>
+        <v>0.0007787386661847429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H5">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I5">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J5">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.200968333333333</v>
+        <v>5.336666</v>
       </c>
       <c r="N5">
-        <v>18.602905</v>
+        <v>16.009998</v>
       </c>
       <c r="O5">
-        <v>0.1266992569813091</v>
+        <v>0.1106422073964871</v>
       </c>
       <c r="P5">
-        <v>0.1266992569813091</v>
+        <v>0.1106422073964871</v>
       </c>
       <c r="Q5">
-        <v>0.167072689805</v>
+        <v>0.06082554017933334</v>
       </c>
       <c r="R5">
-        <v>1.503654208245</v>
+        <v>0.547429861614</v>
       </c>
       <c r="S5">
-        <v>0.02926644864438998</v>
+        <v>0.01638822514168666</v>
       </c>
       <c r="T5">
-        <v>0.02926644864438999</v>
+        <v>0.01638822514168667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H6">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I6">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J6">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6284749999999999</v>
+        <v>0.219956</v>
       </c>
       <c r="N6">
-        <v>1.885425</v>
+        <v>0.659868</v>
       </c>
       <c r="O6">
-        <v>0.01284110984784283</v>
+        <v>0.004560228683995159</v>
       </c>
       <c r="P6">
-        <v>0.01284110984784283</v>
+        <v>0.00456022868399516</v>
       </c>
       <c r="Q6">
-        <v>0.016933001925</v>
+        <v>0.002506985169333334</v>
       </c>
       <c r="R6">
-        <v>0.152397017325</v>
+        <v>0.022562866524</v>
       </c>
       <c r="S6">
-        <v>0.002966186944208389</v>
+        <v>0.0006754570080392574</v>
       </c>
       <c r="T6">
-        <v>0.00296618694420839</v>
+        <v>0.0006754570080392575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H7">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I7">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J7">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9535446666666667</v>
+        <v>1.771611</v>
       </c>
       <c r="N7">
-        <v>2.860634</v>
+        <v>5.314833</v>
       </c>
       <c r="O7">
-        <v>0.01948298947371231</v>
+        <v>0.03672985187529028</v>
       </c>
       <c r="P7">
-        <v>0.01948298947371232</v>
+        <v>0.03672985187529029</v>
       </c>
       <c r="Q7">
-        <v>0.07957743446022222</v>
+        <v>0.026939116866</v>
       </c>
       <c r="R7">
-        <v>0.716196910142</v>
+        <v>0.242452051794</v>
       </c>
       <c r="S7">
-        <v>0.01393973426537067</v>
+        <v>0.007258206191290337</v>
       </c>
       <c r="T7">
-        <v>0.01393973426537067</v>
+        <v>0.007258206191290341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H8">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I8">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J8">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>121.955173</v>
       </c>
       <c r="O8">
-        <v>0.8306030592602074</v>
+        <v>0.8428101954878733</v>
       </c>
       <c r="P8">
-        <v>0.8306030592602075</v>
+        <v>0.8428101954878736</v>
       </c>
       <c r="Q8">
-        <v>3.392562553088778</v>
+        <v>0.6181501202126667</v>
       </c>
       <c r="R8">
-        <v>30.533062977799</v>
+        <v>5.563351081914</v>
       </c>
       <c r="S8">
-        <v>0.5942817934441484</v>
+        <v>0.1665481853763767</v>
       </c>
       <c r="T8">
-        <v>0.5942817934441484</v>
+        <v>0.1665481853763768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H9">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I9">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J9">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5077083333333333</v>
+        <v>0.2535886666666667</v>
       </c>
       <c r="N9">
-        <v>1.523125</v>
+        <v>0.7607660000000001</v>
       </c>
       <c r="O9">
-        <v>0.01037358443692834</v>
+        <v>0.005257516556354092</v>
       </c>
       <c r="P9">
-        <v>0.01037358443692834</v>
+        <v>0.005257516556354093</v>
       </c>
       <c r="Q9">
-        <v>0.04237046048611112</v>
+        <v>0.003856069265333333</v>
       </c>
       <c r="R9">
-        <v>0.381334144375</v>
+        <v>0.034704623388</v>
       </c>
       <c r="S9">
-        <v>0.007422116129830905</v>
+        <v>0.001038940732723528</v>
       </c>
       <c r="T9">
-        <v>0.007422116129830905</v>
+        <v>0.001038940732723528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H10">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I10">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J10">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.200968333333333</v>
+        <v>5.336666</v>
       </c>
       <c r="N10">
-        <v>18.602905</v>
+        <v>16.009998</v>
       </c>
       <c r="O10">
-        <v>0.1266992569813091</v>
+        <v>0.1106422073964871</v>
       </c>
       <c r="P10">
-        <v>0.1266992569813091</v>
+        <v>0.1106422073964871</v>
       </c>
       <c r="Q10">
-        <v>0.5174976782794445</v>
+        <v>0.08114934319599999</v>
       </c>
       <c r="R10">
-        <v>4.657479104515</v>
+        <v>0.7303440887639999</v>
       </c>
       <c r="S10">
-        <v>0.09065107674170667</v>
+        <v>0.02186406733873781</v>
       </c>
       <c r="T10">
-        <v>0.09065107674170669</v>
+        <v>0.02186406733873782</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H11">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I11">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J11">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.6284749999999999</v>
+        <v>0.219956</v>
       </c>
       <c r="N11">
-        <v>1.885425</v>
+        <v>0.659868</v>
       </c>
       <c r="O11">
-        <v>0.01284110984784283</v>
+        <v>0.004560228683995159</v>
       </c>
       <c r="P11">
-        <v>0.01284110984784283</v>
+        <v>0.00456022868399516</v>
       </c>
       <c r="Q11">
-        <v>0.05244896214166666</v>
+        <v>0.003344650936</v>
       </c>
       <c r="R11">
-        <v>0.4720406592749999</v>
+        <v>0.030101858424</v>
       </c>
       <c r="S11">
-        <v>0.009187586904611526</v>
+        <v>0.0009011492935026128</v>
       </c>
       <c r="T11">
-        <v>0.009187586904611529</v>
+        <v>0.0009011492935026131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H12">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I12">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J12">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9535446666666667</v>
+        <v>1.771611</v>
       </c>
       <c r="N12">
-        <v>2.860634</v>
+        <v>5.314833</v>
       </c>
       <c r="O12">
-        <v>0.01948298947371231</v>
+        <v>0.03672985187529028</v>
       </c>
       <c r="P12">
-        <v>0.01948298947371232</v>
+        <v>0.03672985187529029</v>
       </c>
       <c r="Q12">
-        <v>0.005953297202222222</v>
+        <v>0.08919293686900001</v>
       </c>
       <c r="R12">
-        <v>0.05357967482</v>
+        <v>0.8027364318210001</v>
       </c>
       <c r="S12">
-        <v>0.001042850671985847</v>
+        <v>0.02403125276237272</v>
       </c>
       <c r="T12">
-        <v>0.001042850671985847</v>
+        <v>0.02403125276237273</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H13">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I13">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J13">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>121.955173</v>
       </c>
       <c r="O13">
-        <v>0.8306030592602074</v>
+        <v>0.8428101954878733</v>
       </c>
       <c r="P13">
-        <v>0.8306030592602075</v>
+        <v>0.8428101954878736</v>
       </c>
       <c r="Q13">
-        <v>0.2538022655877778</v>
+        <v>2.046638162711222</v>
       </c>
       <c r="R13">
-        <v>2.28422039029</v>
+        <v>18.419743464401</v>
       </c>
       <c r="S13">
-        <v>0.04445903744246913</v>
+        <v>0.5514257151714631</v>
       </c>
       <c r="T13">
-        <v>0.04445903744246914</v>
+        <v>0.5514257151714633</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H14">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I14">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J14">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5077083333333333</v>
+        <v>0.2535886666666667</v>
       </c>
       <c r="N14">
-        <v>1.523125</v>
+        <v>0.7607660000000001</v>
       </c>
       <c r="O14">
-        <v>0.01037358443692834</v>
+        <v>0.005257516556354092</v>
       </c>
       <c r="P14">
-        <v>0.01037358443692834</v>
+        <v>0.005257516556354093</v>
       </c>
       <c r="Q14">
-        <v>0.003169792361111111</v>
+        <v>0.01276709048244445</v>
       </c>
       <c r="R14">
-        <v>0.02852813125</v>
+        <v>0.114903814342</v>
       </c>
       <c r="S14">
-        <v>0.0005552587048075509</v>
+        <v>0.003439837157445821</v>
       </c>
       <c r="T14">
-        <v>0.0005552587048075509</v>
+        <v>0.003439837157445822</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H15">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I15">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J15">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.200968333333333</v>
+        <v>5.336666</v>
       </c>
       <c r="N15">
-        <v>18.602905</v>
+        <v>16.009998</v>
       </c>
       <c r="O15">
-        <v>0.1266992569813091</v>
+        <v>0.1106422073964871</v>
       </c>
       <c r="P15">
-        <v>0.1266992569813091</v>
+        <v>0.1106422073964871</v>
       </c>
       <c r="Q15">
-        <v>0.03871471229444444</v>
+        <v>0.2686780075473333</v>
       </c>
       <c r="R15">
-        <v>0.34843241065</v>
+        <v>2.418102067926</v>
       </c>
       <c r="S15">
-        <v>0.006781731595212416</v>
+        <v>0.0723899149160626</v>
       </c>
       <c r="T15">
-        <v>0.006781731595212417</v>
+        <v>0.07238991491606261</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H16">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I16">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J16">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6284749999999999</v>
+        <v>0.219956</v>
       </c>
       <c r="N16">
-        <v>1.885425</v>
+        <v>0.659868</v>
       </c>
       <c r="O16">
-        <v>0.01284110984784283</v>
+        <v>0.004560228683995159</v>
       </c>
       <c r="P16">
-        <v>0.01284110984784283</v>
+        <v>0.00456022868399516</v>
       </c>
       <c r="Q16">
-        <v>0.003923778916666666</v>
+        <v>0.01107383145733334</v>
       </c>
       <c r="R16">
-        <v>0.03531401024999999</v>
+        <v>0.099664483116</v>
       </c>
       <c r="S16">
-        <v>0.0006873359990229143</v>
+        <v>0.00298362238245329</v>
       </c>
       <c r="T16">
-        <v>0.0006873359990229145</v>
+        <v>0.00298362238245329</v>
       </c>
     </row>
   </sheetData>
